--- a/Assets/Resources/Excels/Building_Properties.xlsx
+++ b/Assets/Resources/Excels/Building_Properties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2020m\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\24021691\Desktop\ZombieRush\Assets\Resources\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0621BF5A-0030-42B1-BA51-FD9F790F9B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2173A273-BCF3-4910-A6BF-C6F8B3017072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="19200" windowHeight="10010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3072" yWindow="3072" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,25 +87,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Resources_Green_Need</t>
+  </si>
+  <si>
+    <t>Resources_Black_Need</t>
+  </si>
+  <si>
+    <t>Resources_Pink_Need</t>
+  </si>
+  <si>
+    <t>Prefabs/BuildingButton</t>
+  </si>
+  <si>
     <t>UI_Image_Path</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/Buildings/Tower_test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -135,7 +149,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -413,23 +427,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="11.08203125" customWidth="1"/>
-    <col min="3" max="3" width="14.75" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" customWidth="1"/>
     <col min="4" max="4" width="33.6640625" customWidth="1"/>
-    <col min="5" max="5" width="22.83203125" customWidth="1"/>
-    <col min="6" max="6" width="9.83203125" customWidth="1"/>
-    <col min="7" max="7" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="22.77734375" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" customWidth="1"/>
+    <col min="7" max="7" width="28.109375" customWidth="1"/>
+    <col min="8" max="8" width="21.77734375" customWidth="1"/>
+    <col min="9" max="9" width="22" customWidth="1"/>
+    <col min="10" max="10" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -449,10 +466,19 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
         <v>15</v>
       </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>1</v>
       </c>
@@ -474,8 +500,17 @@
       <c r="G2" t="s">
         <v>10</v>
       </c>
+      <c r="H2">
+        <v>999</v>
+      </c>
+      <c r="I2">
+        <v>999</v>
+      </c>
+      <c r="J2">
+        <v>999</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>2</v>
       </c>
@@ -492,10 +527,19 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="H3">
+        <v>40</v>
+      </c>
+      <c r="I3">
+        <v>20</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Excels/Building_Properties.xlsx
+++ b/Assets/Resources/Excels/Building_Properties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\24021691\Desktop\ZombieRush\Assets\Resources\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2020m\Desktop\ZombieRush\Assets\Resources\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2173A273-BCF3-4910-A6BF-C6F8B3017072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30215B3D-2097-42AE-A01F-4E22224EE1E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3072" yWindow="3072" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3180" yWindow="2070" windowWidth="19200" windowHeight="10010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -96,30 +96,32 @@
     <t>Resources_Pink_Need</t>
   </si>
   <si>
+    <t>UI_Image_Path</t>
+  </si>
+  <si>
     <t>Prefabs/BuildingButton</t>
-  </si>
-  <si>
-    <t>UI_Image_Path</t>
-  </si>
-  <si>
-    <t>Sprites/Buildings/Tower_test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/Buildings/B1_Sprite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -149,7 +151,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -430,23 +432,23 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.109375" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" customWidth="1"/>
+    <col min="2" max="2" width="11.08203125" customWidth="1"/>
+    <col min="3" max="3" width="14.75" customWidth="1"/>
     <col min="4" max="4" width="33.6640625" customWidth="1"/>
-    <col min="5" max="5" width="22.77734375" customWidth="1"/>
-    <col min="6" max="6" width="12.77734375" customWidth="1"/>
-    <col min="7" max="7" width="28.109375" customWidth="1"/>
-    <col min="8" max="8" width="21.77734375" customWidth="1"/>
+    <col min="5" max="5" width="22.75" customWidth="1"/>
+    <col min="6" max="6" width="12.75" customWidth="1"/>
+    <col min="7" max="7" width="28.08203125" customWidth="1"/>
+    <col min="8" max="8" width="21.75" customWidth="1"/>
     <col min="9" max="9" width="22" customWidth="1"/>
     <col min="10" max="10" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -466,7 +468,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H1" t="s">
         <v>15</v>
@@ -478,7 +480,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -510,7 +512,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -527,7 +529,7 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
         <v>20</v>

--- a/Assets/Resources/Excels/Building_Properties.xlsx
+++ b/Assets/Resources/Excels/Building_Properties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2020m\Desktop\ZombieRush\Assets\Resources\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30215B3D-2097-42AE-A01F-4E22224EE1E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32D0885-94FB-43EB-806F-0E642FCD709F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2070" windowWidth="19200" windowHeight="10010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3440" yWindow="2810" windowWidth="19200" windowHeight="10010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,85 +25,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Name_CN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name_EN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Describe_CN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Describe_EN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Prefab_Path</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>木精灵围栏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wood Elf Fence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用史莱姆精华催生的木精灵组成的围栏，可以阻挡敌人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fence composed of wood elves nurtured by slime essence, can block enemies.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>null</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>简单防御塔</t>
+    <t>Resources_Green_Need</t>
+  </si>
+  <si>
+    <t>Resources_Black_Need</t>
+  </si>
+  <si>
+    <t>Resources_Pink_Need</t>
+  </si>
+  <si>
+    <t>UI_Image_Path</t>
+  </si>
+  <si>
+    <t>Sprites/Buildings/B1_Sprite</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Simple Denfence Tower</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手法粗糙的防御塔，不知道为什么可以攻击敌人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A crudely constructed defense tower, for some reason, is can attacking enemies.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Resources_Green_Need</t>
-  </si>
-  <si>
-    <t>Resources_Black_Need</t>
-  </si>
-  <si>
-    <t>Resources_Pink_Need</t>
-  </si>
-  <si>
-    <t>UI_Image_Path</t>
-  </si>
-  <si>
-    <t>Prefabs/BuildingButton</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprites/Buildings/B1_Sprite</t>
+    <t>Prefabs/B1_0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -429,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -448,7 +400,7 @@
     <col min="10" max="10" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -456,7 +408,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -467,80 +419,44 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="D2">
         <v>999</v>
       </c>
-      <c r="I2">
+      <c r="E2">
         <v>999</v>
       </c>
-      <c r="J2">
+      <c r="F2">
         <v>999</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>40</v>
+      </c>
+      <c r="E3">
         <v>20</v>
       </c>
-      <c r="H3">
-        <v>40</v>
-      </c>
-      <c r="I3">
-        <v>20</v>
-      </c>
-      <c r="J3">
+      <c r="F3">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Resources/Excels/Building_Properties.xlsx
+++ b/Assets/Resources/Excels/Building_Properties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2020m\Desktop\ZombieRush\Assets\Resources\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32D0885-94FB-43EB-806F-0E642FCD709F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B666F9C3-1BE3-4BAD-B3AC-62C4B63233A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3440" yWindow="2810" windowWidth="19200" windowHeight="10010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -384,16 +384,16 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.08203125" customWidth="1"/>
-    <col min="3" max="3" width="14.75" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" customWidth="1"/>
+    <col min="3" max="3" width="31.08203125" customWidth="1"/>
     <col min="4" max="4" width="33.6640625" customWidth="1"/>
     <col min="5" max="5" width="22.75" customWidth="1"/>
-    <col min="6" max="6" width="12.75" customWidth="1"/>
+    <col min="6" max="6" width="19.5" customWidth="1"/>
     <col min="7" max="7" width="28.08203125" customWidth="1"/>
     <col min="8" max="8" width="21.75" customWidth="1"/>
     <col min="9" max="9" width="22" customWidth="1"/>

--- a/Assets/Resources/Excels/Building_Properties.xlsx
+++ b/Assets/Resources/Excels/Building_Properties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2020m\Desktop\ZombieRush\Assets\Resources\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B666F9C3-1BE3-4BAD-B3AC-62C4B63233A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7A6FC5-0014-4FB4-B7E4-5D851A20F095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1010" yWindow="2010" windowWidth="19200" windowHeight="11080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -384,7 +384,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/Assets/Resources/Excels/Building_Properties.xlsx
+++ b/Assets/Resources/Excels/Building_Properties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2020m\Desktop\ZombieRush\Assets\Resources\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\24021691\Desktop\ZombieRush\Assets\Resources\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7A6FC5-0014-4FB4-B7E4-5D851A20F095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0E3DDB-C766-43A9-AC95-CE5C97AAACA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1010" yWindow="2010" windowWidth="19200" windowHeight="11080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5652" yWindow="1272" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,10 +35,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Resources_Green_Need</t>
   </si>
   <si>
@@ -57,23 +53,29 @@
   <si>
     <t>Prefabs/B1_0</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/B0</t>
+  </si>
+  <si>
+    <t>Sprites/Buildings/B0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -103,7 +105,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -384,23 +386,23 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="19.1640625" customWidth="1"/>
-    <col min="3" max="3" width="31.08203125" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" customWidth="1"/>
+    <col min="3" max="3" width="31.109375" customWidth="1"/>
     <col min="4" max="4" width="33.6640625" customWidth="1"/>
-    <col min="5" max="5" width="22.75" customWidth="1"/>
-    <col min="6" max="6" width="19.5" customWidth="1"/>
-    <col min="7" max="7" width="28.08203125" customWidth="1"/>
-    <col min="8" max="8" width="21.75" customWidth="1"/>
+    <col min="5" max="5" width="22.77734375" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" customWidth="1"/>
+    <col min="7" max="7" width="28.109375" customWidth="1"/>
+    <col min="8" max="8" width="21.77734375" customWidth="1"/>
     <col min="9" max="9" width="22" customWidth="1"/>
     <col min="10" max="10" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -408,47 +410,47 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D2">
-        <v>999</v>
+        <v>10</v>
       </c>
       <c r="E2">
-        <v>999</v>
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>999</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3">
         <v>40</v>
@@ -463,5 +465,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>